--- a/input.xlsx
+++ b/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91825\Desktop\Scraping_scrips\JordanScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC99CB35-A3B4-47FF-9A8F-FE5537CAAB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED334547-693C-4A5F-BF19-10B616760E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="380">
   <si>
     <t>1984 Star Michael Jordan 101</t>
   </si>
@@ -1161,1138 +1161,10 @@
     <t>1999 Upper Deck Wild! Michael Jordan W15</t>
   </si>
   <si>
-    <t>All Graded Sales</t>
-  </si>
-  <si>
-    <t>728eae34013cf90893066b3dcc59b12786b23abf</t>
-  </si>
-  <si>
-    <t>25b4432f12a5d6ec29a6f00490200416d5dfa242</t>
-  </si>
-  <si>
-    <t>ebde2b67046bad69ba36c2e0a0fce4a6d3c20ee4</t>
-  </si>
-  <si>
-    <t>fbba3f0a9555072d2bbe9de6355cd9a7773a9730</t>
-  </si>
-  <si>
-    <t>038d1579558756e152a6454cd24d362820433e94</t>
-  </si>
-  <si>
-    <t>76d5d970f499ebef6bdc8a92a1508f0b03713b97</t>
-  </si>
-  <si>
-    <t>cc4ffbdf6434061f05db73753adac7a181118717</t>
-  </si>
-  <si>
-    <t>ccc1abe9f76f62396bbd7254f33864f76b70d8cf</t>
-  </si>
-  <si>
-    <t>702abb04d93a6ee755319d16d59802a57002f715</t>
-  </si>
-  <si>
-    <t>b9bb68512acfaa0fdd34de9e93bfd4d3bf8e5c77</t>
-  </si>
-  <si>
-    <t>b35f908af3ca65dcbefe1d6561eb8d3ed53f0055</t>
-  </si>
-  <si>
-    <t>a661ca2826af1115d57151f922392168906fd26a</t>
-  </si>
-  <si>
-    <t>603aae42deb62caebec14bdef6ed166b665596e0</t>
-  </si>
-  <si>
-    <t>17791d652b276ba2f2dce98662bf62227636d962</t>
-  </si>
-  <si>
-    <t>dce01431e55c68165579a734b176615aa6b49151</t>
-  </si>
-  <si>
-    <t>23391ad13fdd1674f1ea36b62ea8f3b06b7a592c</t>
-  </si>
-  <si>
-    <t>2b9305d1303f9dcb6a05f4f59f80e7e64b621c46</t>
-  </si>
-  <si>
-    <t>7c68529cb443f8fcdac94dcdded82e2b9d95a0bd</t>
-  </si>
-  <si>
-    <t>623ddaddc34d6421d2b769ff5e7eb9471dfd8028</t>
-  </si>
-  <si>
-    <t>d1cc2d23bf43bd701c7f8f8085f80d68c6738520</t>
-  </si>
-  <si>
-    <t>b245e1275a114c83e0ea1eef5d206712dc8a84c5</t>
-  </si>
-  <si>
-    <t>5d057105984c29243ac4f83c8a874cf30d85da9f</t>
-  </si>
-  <si>
-    <t>86a3ca87de52dfbd17a1fc979614f3aea5d88307</t>
-  </si>
-  <si>
-    <t>0fc9685a625d6bebc6111798d4ec47bdaf4573ca</t>
-  </si>
-  <si>
-    <t>e0f6f68f3ee36d6fd860b56d75bc31c6e56044ed</t>
-  </si>
-  <si>
-    <t>732f1777204c013108a3bc2c30cc3d4dcd442ef4</t>
-  </si>
-  <si>
-    <t>894fe83b36b399e0e46b4f757293ad8804c6bed7</t>
-  </si>
-  <si>
-    <t>f92c23d15fb6ee24539aeb34dd82a4a6bf61b876</t>
-  </si>
-  <si>
-    <t>b4f045b2996d51eb5f1d63cece24d6533f9296de</t>
-  </si>
-  <si>
-    <t>5c1d88cc764bc2e4d03168bdcb96a33ed5288b53</t>
-  </si>
-  <si>
-    <t>bd9f68ac1c3a60e15d44ccd358a854ab3593d956</t>
-  </si>
-  <si>
-    <t>0dcb11983db4f8843ebe13c75716de644c1364fc</t>
-  </si>
-  <si>
-    <t>b38383c39459ee6ecf812c297b46c2a3ca8c4bf9</t>
-  </si>
-  <si>
-    <t>c0e61bc6a3c4013adbed78c25ca96661c524b84a</t>
-  </si>
-  <si>
-    <t>8d5d5203af006de9308cf2fd4d9b053eec6589a9</t>
-  </si>
-  <si>
-    <t>2b9c4a46f73ac2f8cda3132e1dab9d03dc9e19eb</t>
-  </si>
-  <si>
-    <t>1e463ca11763076f777d29ebf02765e486a84dd9</t>
-  </si>
-  <si>
-    <t>2fd3e1b0dcff06e613294f03bd36dbb4419b07d9</t>
-  </si>
-  <si>
-    <t>10fbe5a52de9e32f78d728d5b0e6117fc785ac24</t>
-  </si>
-  <si>
-    <t>d15134543cdddc1b445c214db9fa73ed373092e4</t>
-  </si>
-  <si>
-    <t>699683c076c6f19941aca3d3379324c412e94eea</t>
-  </si>
-  <si>
-    <t>df96c6cc589e1100b545986bdfb424017fb6cec2</t>
-  </si>
-  <si>
-    <t>336555188c838e83e4491b011558b8f0841bad06</t>
-  </si>
-  <si>
-    <t>8bde3a6124accf1162467ee49074fb877c77a9f5</t>
-  </si>
-  <si>
-    <t>102a79d53eb437759bfe343d11fdd25e1e72a992</t>
-  </si>
-  <si>
-    <t>1149c24573391786b6ceaa76fca341dcf4be5008</t>
-  </si>
-  <si>
-    <t>a42306deea27149d394b1c0c3f1413ab21976c93</t>
-  </si>
-  <si>
-    <t>2125a9960ae5ee2a25b76ea04f2926642b0d6d23</t>
-  </si>
-  <si>
-    <t>1f2d0ae9599bdb771767ae99f73b219875ba77bc</t>
-  </si>
-  <si>
-    <t>dd77b1fdd1cfad220ac95e6cde37ced3eef2b96b</t>
-  </si>
-  <si>
-    <t>b2f49338ef825f2d79f73765094ebc2de596a718</t>
-  </si>
-  <si>
-    <t>b04fa8178a806965b7ea9a484e5d2fe22a5ed918</t>
-  </si>
-  <si>
-    <t>8c1210252a046cf54ecf7948aa99585ddb23ca70</t>
-  </si>
-  <si>
-    <t>f24a0d29d8b50387ce5d64c870ddbee18c3ec663</t>
-  </si>
-  <si>
-    <t>349406f2cb67d1d07813721076c8604d4cf13c11</t>
-  </si>
-  <si>
-    <t>8e9196d151ca13755d2f6a533efe0e5072fcc90b</t>
-  </si>
-  <si>
-    <t>e3f366f788b89ac9ee456ff3ed5180476b2431ce</t>
-  </si>
-  <si>
-    <t>c79f416d8bcbe080503e0e95cdacaf2574ffc408</t>
-  </si>
-  <si>
-    <t>e931021071241a56c3e8f357ea4181d260eee428</t>
-  </si>
-  <si>
-    <t>c89e8c29a7490f1f4ea66629f8201aa6e6408597</t>
-  </si>
-  <si>
-    <t>8805f6b92bf27e18099d9be4e42c8ee2a92805dd</t>
-  </si>
-  <si>
-    <t>ece3cd1796c0b730f9284d18657f3bcae2d3000b</t>
-  </si>
-  <si>
-    <t>e7da578ba30a19b1fe05ecfa5eaf25bc9e18429a</t>
-  </si>
-  <si>
-    <t>b3b0e88ebabbaaef36188cc94b31f6ac2959a0a4</t>
-  </si>
-  <si>
-    <t>98df6ff3cd3ee4db71eabe66773fdc6110dc575c</t>
-  </si>
-  <si>
-    <t>2db8ba9ec4a3e4f5a1822e2d622f1c044982e704</t>
-  </si>
-  <si>
-    <t>9d59b0359fe39746d1283126302f80758f1dc4df</t>
-  </si>
-  <si>
-    <t>bef84f02ce7b92a0c41cb2589ec2a9286e397da9</t>
-  </si>
-  <si>
-    <t>3e68e1b22b1931e7acaee30b0759949e98bdd41b</t>
-  </si>
-  <si>
-    <t>85f3f428b8691f01ee4e7969a0979d7873473c30</t>
-  </si>
-  <si>
-    <t>fbbc01bddbb5d750049108ee65d1e637932a5198</t>
-  </si>
-  <si>
-    <t>a655c79f113e2ca45697410efa334681f59f3c7c</t>
-  </si>
-  <si>
-    <t>a23d95039af785bfc187d5ba3a465dd530bbf154</t>
-  </si>
-  <si>
-    <t>8917fb5b9bcd576cfd0f95d073324827c1392297</t>
-  </si>
-  <si>
-    <t>ac05f3da663a79df2c0648805f487ce09016d28e</t>
-  </si>
-  <si>
-    <t>1e8de4caf70ad5fecf7794128c20dc1d2da5049a</t>
-  </si>
-  <si>
-    <t>5a718471757208c6880d879a40dbd61099a18308</t>
-  </si>
-  <si>
-    <t>9d8d2d28d3a7fb8556ed66e58e895792aeeb8399</t>
-  </si>
-  <si>
-    <t>f888eabfb243b602a0707522df7f0b97fe1c3ae0</t>
-  </si>
-  <si>
-    <t>819c85fc2c9be481e79ef9ac7b50d8110def18f7</t>
-  </si>
-  <si>
-    <t>9741e1d4b5a32bfa41e4188c207c2f93b9740562</t>
-  </si>
-  <si>
-    <t>dacf8e93ac38a56062ab640c8598500bb284bc19</t>
-  </si>
-  <si>
-    <t>f87e17d95c7b7bb1ddc946dd7c8c42f838ac3c04</t>
-  </si>
-  <si>
-    <t>9ec54d456a0b9df52ba3082605b6bd12d835fcb5</t>
-  </si>
-  <si>
-    <t>c972c5b9b98d5f78a53ebaf03940cdc31d562d11</t>
-  </si>
-  <si>
-    <t>174f8d485d8e7e2ef29cad6868c6abf1ab491cfd</t>
-  </si>
-  <si>
-    <t>0ebfbffc620d67e8038bbeb6f59c74efb85e4117</t>
-  </si>
-  <si>
-    <t>2e4210b25dc977e6f25451422cacbfe49cbe81a1</t>
-  </si>
-  <si>
-    <t>a33226e14531cbc835a137a027e5064f1e978d76</t>
-  </si>
-  <si>
-    <t>9a4545873c9d22e9c31a163830d76e4c36d078ff</t>
-  </si>
-  <si>
-    <t>bf56e52e8803ed88769fcea5a102347636824a30</t>
-  </si>
-  <si>
-    <t>fcabfb2ffa98c7755184cebcceda777bd307dad7</t>
-  </si>
-  <si>
-    <t>62d1cf17a69ad470a5c2e66295a64f382273e7b9</t>
-  </si>
-  <si>
-    <t>3036a35b6b71f5874120d88b6367ea16d9fb402a</t>
-  </si>
-  <si>
-    <t>3e9ea51b05f312903949a4c6b512b1a7ae107f99</t>
-  </si>
-  <si>
-    <t>aa5cd96de52bd5cb7e2e4c6267f61b7010a1db3c</t>
-  </si>
-  <si>
-    <t>ed2a0391c660f614d5c2983c8dcb191696b884ea</t>
-  </si>
-  <si>
-    <t>042470ab56d2b34a7fe1e5a58af5d6d54e23c0cf</t>
-  </si>
-  <si>
-    <t>e4e25eeb52886c2e62bd9d7912869e110ad5e3da</t>
-  </si>
-  <si>
-    <t>22766d4375a6985e8c41a60664b2e68160634b61</t>
-  </si>
-  <si>
-    <t>aa5cfde53369870267438e7cfc01f7e8a2d67b4d</t>
-  </si>
-  <si>
-    <t>1225925cf62a28c4af1523d027572a4ac50b4fa5</t>
-  </si>
-  <si>
-    <t>b698c5e8874e20c734ed19106204482acc25a49e</t>
-  </si>
-  <si>
-    <t>5241f5f36a6bb76ba2aa080e26a20b258bc6e754</t>
-  </si>
-  <si>
-    <t>207e93cbf2ba757c808f27f4c0ecabce20eac876</t>
-  </si>
-  <si>
-    <t>f9c7d2228bbbf759647338c2878430d44c35729f</t>
-  </si>
-  <si>
-    <t>a474688bf1a8efbb12536d8dae307c16a98b5e33</t>
-  </si>
-  <si>
-    <t>0c1b9329f009ee5f9c5ebb91c2182fafa5ffa29c</t>
-  </si>
-  <si>
-    <t>92854b74bf38bb5d8a5b1cbede109a2c4a4443e7</t>
-  </si>
-  <si>
-    <t>60c6e5211a79318b64f8a469bd96057b131a4325</t>
-  </si>
-  <si>
-    <t>8a98b024b0afe9af40c852b37c3bf9832856c3c3</t>
-  </si>
-  <si>
-    <t>d76530d67163b4e69056a5cf47d334c93fa366ef</t>
-  </si>
-  <si>
-    <t>06588f8c15b7f8fc3e9ff9c5ed38f56771e58139</t>
-  </si>
-  <si>
-    <t>b3815db79969da704e0ba9cfdb528e3d44925946</t>
-  </si>
-  <si>
-    <t>ddda726b3c7e2051cd83cce52e35d644828367b7</t>
-  </si>
-  <si>
-    <t>c0ef374d7553e52387480854fd968a39db2f1cab</t>
-  </si>
-  <si>
-    <t>5e1c0168b0f3e34ec2477d0fd98426f368931d26</t>
-  </si>
-  <si>
-    <t>3cd886799c4d99ee99450988f44571c8cd16c043</t>
-  </si>
-  <si>
-    <t>02d78f2a961daed85c4f70ad5e6210d9744d39bc</t>
-  </si>
-  <si>
-    <t>b1c09f18e6ca82d80f5bcb1e148f457564f1daa8</t>
-  </si>
-  <si>
-    <t>07496f71862e655af942e70296a45917479f90d2</t>
-  </si>
-  <si>
-    <t>e8dfff30541fb740a505f92043e3c7fb3f3350ca</t>
-  </si>
-  <si>
-    <t>0729e2aaa7b538a31465d648de380141f5908416</t>
-  </si>
-  <si>
-    <t>aae0ae7696dee188ecfd1fa1c18cc4275f86366d</t>
-  </si>
-  <si>
-    <t>acee233321d6ca5e4855c4b4e1f5f8af214edc29</t>
-  </si>
-  <si>
-    <t>89b21d0205056c9334ce9b0d8c7d2a39c9f66a63</t>
-  </si>
-  <si>
-    <t>3715c7fa217f1e56a1f66507c3f60afb309af84e</t>
-  </si>
-  <si>
-    <t>f002055eb0a7a086171aa65f9b944482646fa4b9</t>
-  </si>
-  <si>
-    <t>80bac568e85e212c7212bdc5600586acb541ad94</t>
-  </si>
-  <si>
-    <t>a65a75cfa2f8d36a094e286f18debe61a8e1445a</t>
-  </si>
-  <si>
-    <t>55cbbe4112d23225e4034275cbbaedd7c80b9529</t>
-  </si>
-  <si>
-    <t>ba7d83dd27ee44aa9a594419bcb71ed13f0d5703</t>
-  </si>
-  <si>
-    <t>bf51662b2b0c9a99b59d3b39b69c4eb04d73c31e</t>
-  </si>
-  <si>
-    <t>873bd1fe60d8b706cfd0bc5c398f01103cdd551c</t>
-  </si>
-  <si>
-    <t>6f4a43b8cdc6370881d5d611bdfabd30da9e463b</t>
-  </si>
-  <si>
-    <t>29e299a78653ccfda0c05dc63c9b4b30f1bb0db4</t>
-  </si>
-  <si>
-    <t>57f05ad6586ab7d50ab5d52b6d8124aeb0d2fcdd</t>
-  </si>
-  <si>
-    <t>84f7c869af847cebaa60c754061eb7be0e5c21d7</t>
-  </si>
-  <si>
-    <t>71f6d057e3b682425492aac063294f637b89cb8d</t>
-  </si>
-  <si>
-    <t>d74ffe2696d50e7e0227d21398ec1eec2c73733b</t>
-  </si>
-  <si>
-    <t>46a0a28dc67d3efb83b7a357ed9e33245fb28b81</t>
-  </si>
-  <si>
-    <t>c48adbf503537a981b3fa964ef2470378b765c15</t>
-  </si>
-  <si>
-    <t>825377eb998abf4759d7367799e62737b196f423</t>
-  </si>
-  <si>
-    <t>b8506195e62e82db7ad8cc757d77e60fb49994a5</t>
-  </si>
-  <si>
-    <t>68211c31ba25254d7e9e0596543d94d5077b2672</t>
-  </si>
-  <si>
-    <t>b60a82df362e0d00d9acad7a1c9b2f688ef73251</t>
-  </si>
-  <si>
-    <t>e867b1cd8125153d6d4324c66c5315f409b9dff1</t>
-  </si>
-  <si>
-    <t>2fdaec43e29234b87d611f39abeee45bfac0f986</t>
-  </si>
-  <si>
-    <t>50305cafca09ece124ce7cf9aa320f6d9d5d2bb0</t>
-  </si>
-  <si>
-    <t>fa4422197e70b418199be637518729d49d5dd99b</t>
-  </si>
-  <si>
-    <t>349d6a80fe22cebd733e2038a0c798971c5c5e8e</t>
-  </si>
-  <si>
-    <t>f8d571a5fe896d7107033f29c7ce2a12ff0abebc</t>
-  </si>
-  <si>
-    <t>77d16744f38a144de0b1c284ed6af1fe19286afa</t>
-  </si>
-  <si>
-    <t>53d213e11a7604b553e8935ceda4dd92bdd2dfe9</t>
-  </si>
-  <si>
-    <t>0ff87f8ca5c36cb6b952c875cfb6ce5d182aaf23</t>
-  </si>
-  <si>
-    <t>b128f331cfa57e98ee8ab8fb9974ee626cfa3c10</t>
-  </si>
-  <si>
-    <t>19422354e21c0569a7b5fe439751fcc99afe154b</t>
-  </si>
-  <si>
-    <t>af077a3e6efc7af5e714088aaf9b94b67acdd35d</t>
-  </si>
-  <si>
-    <t>f1c61ef8baa96c42496044f84c0297dd00b2cc86</t>
-  </si>
-  <si>
-    <t>c83dc65ad17fe7c54e353f9f1f8e4e8acfed9126</t>
-  </si>
-  <si>
-    <t>0324134de541ae18cd62ad6064ae705b148f913c</t>
-  </si>
-  <si>
-    <t>e8e62634b66a21f16ad5fc8e98098a5c81c6a1cd</t>
-  </si>
-  <si>
-    <t>6ad2278bae495021b8cf43bc83906b0ddee83343</t>
-  </si>
-  <si>
-    <t>71afd765b2582f04d9dc974f1d31ec4be8ea7cf7</t>
-  </si>
-  <si>
-    <t>e4bda31065ba04ffbdea4e038b1eeb0e45bc54ab</t>
-  </si>
-  <si>
-    <t>a691f07df6dc39c0249c858d1a10b1ca930d9531</t>
-  </si>
-  <si>
-    <t>ef1a775bcafe22f992c896ed14720f91a3e0aaaa</t>
-  </si>
-  <si>
-    <t>9e9b7723bf0db7beccfa2d329c8fee3864d4b636</t>
-  </si>
-  <si>
-    <t>0360d13a9fbf7c16b617a3b44f02ffc64443d835</t>
-  </si>
-  <si>
-    <t>19033d17b3509e43cb42b3648b913fd152449845</t>
-  </si>
-  <si>
-    <t>f39a72c609d7fd1ded8c32282c93b31ce4b3cadc</t>
-  </si>
-  <si>
-    <t>69db331c178b1b62ef5ae7dfa6ed31ab4d9a5659</t>
-  </si>
-  <si>
-    <t>1624a43d7b3a4e4b1fb85489664572e61b955b8f</t>
-  </si>
-  <si>
-    <t>68ac9e1c7b577c25e0e2fe8270f93209af4a3d3a</t>
-  </si>
-  <si>
-    <t>bab302c3dbf8e4648006fa6d74b17313e9638fbd</t>
-  </si>
-  <si>
-    <t>daa3794ece30714d1304e9ad9abeba73ee63a934</t>
-  </si>
-  <si>
-    <t>913d3a566fe5c03c3778a3704a199b2781d79984</t>
-  </si>
-  <si>
-    <t>7bc3112bfa0dcd49b75d405d9cc1c6f3abcab061</t>
-  </si>
-  <si>
-    <t>743d42e52be289f4ca563d5150e7458ccbaa7325</t>
-  </si>
-  <si>
-    <t>1d5544d022ecf90d97152511adf0c16a0f78ad50</t>
-  </si>
-  <si>
-    <t>300fbb1296aa5504c1209ce67d2785462e073138</t>
-  </si>
-  <si>
-    <t>e16bd920f7d6bc92900f399ea314967ade27288f</t>
-  </si>
-  <si>
-    <t>8f55c681130c47e3dc0be61c91f7425ac53f6e31</t>
-  </si>
-  <si>
-    <t>6dd4266e6b051f39993b88f98ec5548ea1b5600f</t>
-  </si>
-  <si>
-    <t>4b1d0bd4ac23dfc0672cacdb45d87da097eacf22</t>
-  </si>
-  <si>
-    <t>b200f4b239ab2dfde46ced258d8461d0458f082c</t>
-  </si>
-  <si>
-    <t>a51240b4a9111899cab5497420ba3a494928cf8c</t>
-  </si>
-  <si>
-    <t>1b71b0a59ec2e56a13801c1333b5f810b04a5d3a</t>
-  </si>
-  <si>
-    <t>cd53f58cdcc6bb0ed4f843ac4482e7258af049de</t>
-  </si>
-  <si>
-    <t>101cd1360e73f6056fccabc7102b512536e66fad</t>
-  </si>
-  <si>
-    <t>c9eef05df8eb863093c89b8b99f2c84833a777a6</t>
-  </si>
-  <si>
-    <t>ebbc648cf17253999cecb0be1ac1bcaed396e32d</t>
-  </si>
-  <si>
-    <t>75603243d596130d083ca3e1ba3602c5dca08c4e</t>
-  </si>
-  <si>
-    <t>178bb4d9047cf409f5ee06ad6e18e5e4b52d8aff</t>
-  </si>
-  <si>
-    <t>d51a31cc9b3a49b76680227fd6a81f70f7e8c4aa</t>
-  </si>
-  <si>
-    <t>d49964610065a0f3752f068579febaceca59918f</t>
-  </si>
-  <si>
-    <t>5bca6984173cf14bd6d537afc2684017031d0336</t>
-  </si>
-  <si>
-    <t>e268a1fb255984e699f754dc9716a548fbe05720</t>
-  </si>
-  <si>
-    <t>f057000eca928a4fd8760489f7df5a0b49e6804d</t>
-  </si>
-  <si>
-    <t>03e1bf5d782953bae025b5c47bbb0417e11873fe</t>
-  </si>
-  <si>
-    <t>fa72a9e526d907d6633f5bb2822dd67520093554</t>
-  </si>
-  <si>
-    <t>c76518afe0a8386e91845aa8be48ec9740c479fc</t>
-  </si>
-  <si>
-    <t>548db1a8c56c5be9f0e857d354537768030262f1</t>
-  </si>
-  <si>
-    <t>91a9c156b24f174a0d706fe726dac9f5d4639bf4</t>
-  </si>
-  <si>
-    <t>c4fc5198664a4591abf67428ecdd5a7033d97ef9</t>
-  </si>
-  <si>
-    <t>fd69d63df52414ebd99fffd2625d76dd7f2f4a3e</t>
-  </si>
-  <si>
-    <t>1f394091c3d64de943e78af4c70c18a2b25040ae</t>
-  </si>
-  <si>
-    <t>6c77317620aa76271c353513c716f5977248c55c</t>
-  </si>
-  <si>
-    <t>ce4af0f9fc5a876a59addcf2d6dbca19d02b8537</t>
-  </si>
-  <si>
-    <t>6229617e01f8924cdfcf0952160a14c4b7f3c56c</t>
-  </si>
-  <si>
-    <t>c89820fbfd6d62693ec20c43c492bf6bb2d4197c</t>
-  </si>
-  <si>
-    <t>d863e6de65955ac82e3717db4ef019427e918c5f</t>
-  </si>
-  <si>
-    <t>63c2cefbc4786e155335dbb247bb8b8e7179595c</t>
-  </si>
-  <si>
-    <t>74841386b1ff14fa2d6f553096d9e512c6e2922f</t>
-  </si>
-  <si>
-    <t>e1b40fa1983d380ba3b26a20e8a54a11a68bf2e7</t>
-  </si>
-  <si>
-    <t>5091958a05a9007c8196f8f48516a8161e62ca6c</t>
-  </si>
-  <si>
-    <t>7805c4e657c523832915dc55ae0cc2bf1d847219</t>
-  </si>
-  <si>
-    <t>2359bce052b2be88425983392e73f551114b2ddd</t>
-  </si>
-  <si>
-    <t>bdbefbb82cd0c0daf95d9e8a67dd87a31e6333a0</t>
-  </si>
-  <si>
-    <t>e52ecd5bd0063ce2caef4a59f390f37026ecbc6d</t>
-  </si>
-  <si>
-    <t>0f1cb480238efefab3f5670a225a04db80041df6</t>
-  </si>
-  <si>
-    <t>22d743ee2177c4636162e9a580ffa06183bddc4f</t>
-  </si>
-  <si>
-    <t>0857ed450752df520de2a50bc91b3ae8700b7a3c</t>
-  </si>
-  <si>
-    <t>b886e2ae30dc798837931c30e252488e6d997df7</t>
-  </si>
-  <si>
-    <t>de968045251dfbb5be6e0ff0cc38bb57818172d0</t>
-  </si>
-  <si>
-    <t>b6b15c1a0d4ae99db9b23158dd99a6106587a2d2</t>
-  </si>
-  <si>
-    <t>ec9f4650674ee3624e43e4519e4adfe8117f2796</t>
-  </si>
-  <si>
-    <t>caddb792a1018e52df0442fa55c7f13674df8101</t>
-  </si>
-  <si>
-    <t>66bc2653449ec367e63aa8006c092c04738f5c8d</t>
-  </si>
-  <si>
-    <t>0f082a8811da5b7b893dcb13688a8d421b41bd00</t>
-  </si>
-  <si>
-    <t>ccb9c312740a2b2bdc1f71c86ade6b6b4dd9b1d0</t>
-  </si>
-  <si>
-    <t>75db9e38a39da5b2b4551f59eca90516ce0c2478</t>
-  </si>
-  <si>
-    <t>a36a19bd616aca27d08b16ca69090cf6e1e82189</t>
-  </si>
-  <si>
-    <t>2287c69e0f2dd29cbbc3c43c812d1b9d864d81c4</t>
-  </si>
-  <si>
-    <t>e0778cf26d0bcb58be60e9789378f2d1e2d64134</t>
-  </si>
-  <si>
-    <t>7ca1b740cf78d82e09b5430aa79b8630b8cf77a2</t>
-  </si>
-  <si>
-    <t>132508bfb828eb8c97cef3ce8ddc0258889c9644</t>
-  </si>
-  <si>
-    <t>ef13dfc047a4528e3b5de4e2bc1246a2b56d7e43</t>
-  </si>
-  <si>
-    <t>9fef41d8099f3c39cdfdea8ccfed0a05aeb5d834</t>
-  </si>
-  <si>
-    <t>58446346c05708f111754e4f012c661ab26e8c5e</t>
-  </si>
-  <si>
-    <t>8e45656a3a873a59fc170b64ad250ef4c8393600</t>
-  </si>
-  <si>
-    <t>da9d6e9b0eeeab23b8886b77b67551936ecde787</t>
-  </si>
-  <si>
-    <t>c819edd120c787c4e4f2743db4202f89115cc87d</t>
-  </si>
-  <si>
-    <t>03789a718ac7f62ea32f0f28937381f28992d148</t>
-  </si>
-  <si>
-    <t>5c065985ccac4b24eb6bb169ad138f9ac7c97ef9</t>
-  </si>
-  <si>
-    <t>f4ed037762948608c018ca5fbfaf8f6c05f456fd</t>
-  </si>
-  <si>
-    <t>4d42789c2094bfd555f8083ce1a1328550279ad9</t>
-  </si>
-  <si>
-    <t>eebf75296af95ad39d7d814bc016f571265415d8</t>
-  </si>
-  <si>
-    <t>9dd96f17ab95847bd4e927f127edea0b1fe03640</t>
-  </si>
-  <si>
-    <t>4d42a94ac2c951b40f6da8d039bfae1921eb1e69</t>
-  </si>
-  <si>
-    <t>aa45b092746d792e120e02fbb8c36e192d91e25a</t>
-  </si>
-  <si>
-    <t>fc503b896a499543fdbecd8012cc8d0363f2bfc6</t>
-  </si>
-  <si>
-    <t>3f34da80660c54951ec7c083f7284d067f7bc5a8</t>
-  </si>
-  <si>
-    <t>66b11f09b690659d14245d95627ba3f6a0bcd455</t>
-  </si>
-  <si>
-    <t>b020df71de5fd86cd86906efa1b4fb7aa2d5202e</t>
-  </si>
-  <si>
-    <t>ec69c5e6bd415324868246a3a0dc2234ecc1705f</t>
-  </si>
-  <si>
-    <t>ccdc680aaa3a713dc11612fa32b7c185a33c860d</t>
-  </si>
-  <si>
-    <t>0993a34aeac47b59110a73d466e132a7e95b98a4</t>
-  </si>
-  <si>
-    <t>d371960f246579742fffd2191b5b91da68e91501</t>
-  </si>
-  <si>
-    <t>455af12f631a1a2e84408937843290f3d7803bff</t>
-  </si>
-  <si>
-    <t>ebe4da0f9344145a9b167352c2f0a79d39570fe2</t>
-  </si>
-  <si>
-    <t>2289f0b9c40d01f201e9e170f7dc8790f46a8f40</t>
-  </si>
-  <si>
-    <t>85362ec9eff69e7a69c0b06139ad6901b797b3d6</t>
-  </si>
-  <si>
-    <t>280839d776f98375454858fc397236d6eb040f79</t>
-  </si>
-  <si>
-    <t>a08251ccf095691d3e99ba0f667d686ba90149ac</t>
-  </si>
-  <si>
-    <t>17b2424b664b3e80febdf923e9be13591d41d725</t>
-  </si>
-  <si>
-    <t>939b65d5720a21e6499f4df0027ddbf896596491</t>
-  </si>
-  <si>
-    <t>3c5286fdabd29394fb2525215f9f1015218fd1ee</t>
-  </si>
-  <si>
-    <t>c6a819eb34b1fbf16eb06b4db12df99f18c6a5e1</t>
-  </si>
-  <si>
-    <t>09f9970e6500938317a9bcff5adfbb741e4e9ec6</t>
-  </si>
-  <si>
-    <t>9fea516a959394e7209dbe02b680fd45e66f2df6</t>
-  </si>
-  <si>
-    <t>98e40789df84781ec73bd122d704eeb30733bacb</t>
-  </si>
-  <si>
-    <t>9d0f59ba8fa0629a463ca7442907861b093f79e9</t>
-  </si>
-  <si>
-    <t>a1d7c9ad93ad5fe125ea125e5a8a3c901cf51476</t>
-  </si>
-  <si>
-    <t>0b43d5fcdab2841bfcbe91d10b0d0d009eebae38</t>
-  </si>
-  <si>
-    <t>ff84fb97d0d3ac5133b49e84d392c46d69625973</t>
-  </si>
-  <si>
-    <t>8f11bad82224e7686d09b93a4f29311529a8ae09</t>
-  </si>
-  <si>
-    <t>92cea2495f52fb7123c59fdfbf4f2d4b9a7cf563</t>
-  </si>
-  <si>
-    <t>f410f623a827a5545b88452ed8416fb656fc6b75</t>
-  </si>
-  <si>
-    <t>c2f2bee69be26d8fdf3eb924b8454e2f27173768</t>
-  </si>
-  <si>
-    <t>7276c55c424fe70b0569a971aa80c122fad9d96b</t>
-  </si>
-  <si>
-    <t>15052ebdb0565adfbe1634c9f4ad212ba9b95770</t>
-  </si>
-  <si>
-    <t>a0466c33afb67f5e4429635a27283ed7c1960179</t>
-  </si>
-  <si>
-    <t>1602cfa2ce710b92662f7ed7c94a259a8ded45bb</t>
-  </si>
-  <si>
-    <t>e384e72aae7bb039f25a18df7ba18130ea4329dd</t>
-  </si>
-  <si>
-    <t>515cfc86833912c92a4ffc036cc089ef4b6f01f0</t>
-  </si>
-  <si>
-    <t>338f8808c9528eb123d48ada7afa962173008cb2</t>
-  </si>
-  <si>
-    <t>f8b541cf5880eb5145c2fa3905e8c1702b88ab4d</t>
-  </si>
-  <si>
-    <t>2cca13cc2afcb15907ecd1e566add8433a19ea5e</t>
-  </si>
-  <si>
-    <t>2a798b61a9a5efe71ba4cc7ea3255383dc1964b8</t>
-  </si>
-  <si>
-    <t>ac036a4c03fd5e11e6aa9d078a2c3422bb80c5b9</t>
-  </si>
-  <si>
-    <t>97a7776dfd6af12147d7d355d27f0d27a5d4f198</t>
-  </si>
-  <si>
-    <t>8d4ba9b39943f10230675d934cf61d09db3cff4a</t>
-  </si>
-  <si>
-    <t>83164c4b34447f8b82a511097a0093b52de04a8c</t>
-  </si>
-  <si>
-    <t>6d81de3df25bf6a9600216e12dd392274cbfa900</t>
-  </si>
-  <si>
-    <t>0ffd85d4d56f8492c144711f037c7ec340689979</t>
-  </si>
-  <si>
-    <t>8a5ed26f86c9190d968a9aa2fcbf9c12cc747241</t>
-  </si>
-  <si>
-    <t>b0acad4fc2503b78f143ff24dd4ef4877b17511f</t>
-  </si>
-  <si>
-    <t>83b41f767a55cb72ac485535bda5f4e31b704424</t>
-  </si>
-  <si>
-    <t>f9f6b2d6a42a62f37116cf234a48935faa4f1947</t>
-  </si>
-  <si>
-    <t>d472db5f647e1f9801538ba77743af57e412ec59</t>
-  </si>
-  <si>
-    <t>cc97d00a4e1473deab65c58aa3deac66a88d3e51</t>
-  </si>
-  <si>
-    <t>e8ac6322bc3fd78d0ca3b358f15991652adfc758</t>
-  </si>
-  <si>
-    <t>e20e4c01cfb96f96b5630c44788fc3e6bde0d069</t>
-  </si>
-  <si>
-    <t>0ac83edcf672cae323171481362999b9e8539377</t>
-  </si>
-  <si>
-    <t>882cf3bec3f281eafd0589d8a057ba9b8f62c382</t>
-  </si>
-  <si>
-    <t>28b6fe176b6638122e6d82b11b117b369eb0b6f1</t>
-  </si>
-  <si>
-    <t>3f5cd93a750736b3d4be0a115ebef383d4e31ec1</t>
-  </si>
-  <si>
-    <t>b1aa52b7cf3f9a506f139ba3ff5fe8541129ec19</t>
-  </si>
-  <si>
-    <t>e281e321685e5f5cb8abf4c3d3afbe92ddd6343d</t>
-  </si>
-  <si>
-    <t>392591163da0f2e204b011d51300a28a2b798a7b</t>
-  </si>
-  <si>
-    <t>e2b2ca32397077d8561179eabed6eb512b3a0ecd</t>
-  </si>
-  <si>
-    <t>d0141cbc5773904a36dddba36a4ece671a3a5029</t>
-  </si>
-  <si>
-    <t>7933e11965dee26f6370a94400d7b75f0ea07da0</t>
-  </si>
-  <si>
-    <t>d59c71fe5b35c21183b98870d089dd92c49ee009</t>
-  </si>
-  <si>
-    <t>c2d60f47cfb6391b68e135a9f5aa05342bee4fca</t>
-  </si>
-  <si>
-    <t>0f402116fc8a74df4ff8c05f8d00b36543716bde</t>
-  </si>
-  <si>
-    <t>89abc274365f5e4bab966773c3e5b3cafe3f26ef</t>
-  </si>
-  <si>
-    <t>c82687e0576e364d6d2a2c0ec6a4cd1683eebd1b</t>
-  </si>
-  <si>
-    <t>6e44a939fe2e3f3b863810304d702b3216ff9caa</t>
-  </si>
-  <si>
-    <t>01bea2d84a6ac301d5efe3125afb03924051d47c</t>
-  </si>
-  <si>
-    <t>4f42dde1c6c25a3624f569aa29bd526bf2509629</t>
-  </si>
-  <si>
-    <t>90028a3e4572a6295268890d7c579bb87dc73bb1</t>
-  </si>
-  <si>
-    <t>0b21e2b2771cefbc7a3eacbe8ef03fba91b643be</t>
-  </si>
-  <si>
-    <t>a83946a562ba2bb7cf21925deea6584dbce896c6</t>
-  </si>
-  <si>
-    <t>993bb4642b722e7dae515b201d7239823da6c89d</t>
-  </si>
-  <si>
-    <t>96016d69bd2b5b9c8a816ca9f66f2ef4857af12f</t>
-  </si>
-  <si>
-    <t>276be792b52eeeb6485b8d3a474a07686e1f6a81</t>
-  </si>
-  <si>
-    <t>7486e26bcf21849497d8bcdb423266f8c157e9d9</t>
-  </si>
-  <si>
-    <t>e3245e77bcff72939c9b5b880fbf60459c7abbeb</t>
-  </si>
-  <si>
-    <t>b7c7ae6715505ee1f0f1eb56957e369808437580</t>
-  </si>
-  <si>
-    <t>9329003c5ef36ae1ad801ff19adb41ca49b81686</t>
-  </si>
-  <si>
-    <t>c876ee75358641699fbba8fb4d15854e1f8131b9</t>
-  </si>
-  <si>
-    <t>0fe880dd59cc8134a1ba26c159e735807a4d7b43</t>
-  </si>
-  <si>
-    <t>4e678e768c0326a0a22ecfb654b7cd59589dc565</t>
-  </si>
-  <si>
-    <t>de716aeb964ca560d7cde963eba69c8edd9b83a1</t>
-  </si>
-  <si>
-    <t>e93e582d2df6606933883a67da885d2e5e821fc8</t>
-  </si>
-  <si>
-    <t>7cd90a917132d5e0269e908c69266eb135af1a3e</t>
-  </si>
-  <si>
-    <t>8dbbc12c3fa9f1a42ed91e8cb9809ef00a81d1d6</t>
-  </si>
-  <si>
-    <t>e42425729f1b24314676d06f0d5501749607e1d8</t>
-  </si>
-  <si>
-    <t>457bc1b60bd2443985d3afddbe4ffd3caf012899</t>
-  </si>
-  <si>
-    <t>8857882c0f02a1e781ecd32fa0227ece83865517</t>
-  </si>
-  <si>
-    <t>65660774b6398871711aadbaeda4901b5aa651d7</t>
-  </si>
-  <si>
-    <t>31a2d5b588938d29bb1c7e241c19df53944ae2f0</t>
-  </si>
-  <si>
-    <t>2135a3c5f6fae2795eff6f5b3def232b826d697d</t>
-  </si>
-  <si>
-    <t>3e3ba19010e0c228d83ae241f82288bbe76e30a6</t>
-  </si>
-  <si>
-    <t>aef7ee2faaa3aa153839259cb9fd46a99cfe6c6b</t>
-  </si>
-  <si>
-    <t>248a3c76c005d7778dd60ee0b0cef494dc04ac67</t>
-  </si>
-  <si>
-    <t>684dbe398005014ae2241eb2e0bd49a9172027e7</t>
-  </si>
-  <si>
-    <t>2190d213f99e8856df9ffd5cd34b8637d09fb30e</t>
-  </si>
-  <si>
-    <t>c935a239453da72b1f40466874ad9323b3b3a48c</t>
-  </si>
-  <si>
-    <t>13044fa0186661a2a9816e8772f82cdc1278d8d7</t>
-  </si>
-  <si>
-    <t>7bfb45f1e005ce624bf555398facc2412aa77cca</t>
-  </si>
-  <si>
-    <t>3c8e5620856afb5eae5df7683b06f000a4c43842</t>
-  </si>
-  <si>
-    <t>f41a21fe3210a69dee32da5d08eb5ed9706d44ed</t>
-  </si>
-  <si>
-    <t>6e187c49925e0ffd76720b19d5f8e834da62ce03</t>
-  </si>
-  <si>
-    <t>ef1ee8ffbcea114b5daf6b99a0bb0a1a9220954d</t>
-  </si>
-  <si>
-    <t>fa5262658766a1b08069621755b3ffd7b79748a7</t>
-  </si>
-  <si>
-    <t>72f245c537a51adfdefd5e9349d8be33114ecf88</t>
-  </si>
-  <si>
-    <t>0e3d3d562a853e2fa2bd6dd8d97a4cd21c2e9a5f</t>
-  </si>
-  <si>
-    <t>72a6f1f444ebef83deeebeba4a9afe52a273feb0</t>
-  </si>
-  <si>
-    <t>995604d5dd7533c0b2b7bc7f241e566806ea131d</t>
-  </si>
-  <si>
-    <t>8c9385080c679e747593d876220e5560f0758e77</t>
-  </si>
-  <si>
-    <t>a055cf4e143885cb799a9df19b6fa7a2a1ab69e2</t>
-  </si>
-  <si>
-    <t>39abcdee14e90f08e3f43bfa41ba370116fbf1f1</t>
-  </si>
-  <si>
-    <t>2a7646adefb9abc55c3ae97228319a6a0e78e884</t>
-  </si>
-  <si>
-    <t>5d592b2ca4339ee5090ca926f374fe8432a3b622</t>
-  </si>
-  <si>
-    <t>f6838bfc009679209f03d32a873392c1f9811aaf</t>
-  </si>
-  <si>
-    <t>81c50fe1cc674fa0282816f322693a14660ea8e1</t>
-  </si>
-  <si>
-    <t>85b7f539f711c50eda2f0b3f39f7453078356766</t>
-  </si>
-  <si>
-    <t>65afffe0058dda5bf6925b64437b9891a680e269</t>
-  </si>
-  <si>
-    <t>f3571cf9f68cb692e71ec7bac27f51725254bf10</t>
-  </si>
-  <si>
-    <t>7c3bf52eb192b262572a05b8a079c7934812f09f</t>
-  </si>
-  <si>
-    <t>974867dd3b9f068f644176ec58be24375148dd61</t>
-  </si>
-  <si>
-    <t>e432347d22c053167fbb03dc2f8d767fd0dee020</t>
-  </si>
-  <si>
-    <t>75f700c5a11242f7e60d14203bf708ccbbca049c</t>
-  </si>
-  <si>
     <t>Queries</t>
+  </si>
+  <si>
+    <t>Tier</t>
   </si>
 </sst>
 </file>
@@ -2776,11 +1648,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3104,3052 +1973,3053 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" t="s">
         <v>378</v>
       </c>
+      <c r="B1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>379</v>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>380</v>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>381</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>382</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>383</v>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>384</v>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>385</v>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>386</v>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>387</v>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>388</v>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>389</v>
+      <c r="B12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>390</v>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>391</v>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>392</v>
+      <c r="B15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>393</v>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>394</v>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>395</v>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>396</v>
+      <c r="B19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>397</v>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>398</v>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>399</v>
+      <c r="B22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>400</v>
+      <c r="B23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>401</v>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>402</v>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>403</v>
+      <c r="B26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>404</v>
+      <c r="B27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>405</v>
+      <c r="B28">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>406</v>
+      <c r="B29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>407</v>
+      <c r="B30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>408</v>
+      <c r="B31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>409</v>
+      <c r="B32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>410</v>
+      <c r="B33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>411</v>
+      <c r="B34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>412</v>
+      <c r="B35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>413</v>
+      <c r="B36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>414</v>
+      <c r="B37">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>415</v>
+      <c r="B38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>416</v>
+      <c r="B39">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>417</v>
+      <c r="B40">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>418</v>
+      <c r="B41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>419</v>
+      <c r="B42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>420</v>
+      <c r="B43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>421</v>
+      <c r="B44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>422</v>
+      <c r="B45">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>423</v>
+      <c r="B46">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>424</v>
+      <c r="B47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>425</v>
+      <c r="B48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>426</v>
+      <c r="B49">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>427</v>
+      <c r="B50">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>428</v>
+      <c r="B51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>429</v>
+      <c r="B52">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>430</v>
+      <c r="B53">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>431</v>
+      <c r="B54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>432</v>
+      <c r="B55">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>433</v>
+      <c r="B56">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>434</v>
+      <c r="B57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>435</v>
+      <c r="B58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>436</v>
+      <c r="B59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>437</v>
+      <c r="B60">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>438</v>
+      <c r="B61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>439</v>
+      <c r="B62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>440</v>
+      <c r="B63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>441</v>
+      <c r="B64">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>442</v>
+      <c r="B65">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>443</v>
+      <c r="B66">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>444</v>
+      <c r="B67">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>445</v>
+      <c r="B68">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>446</v>
+      <c r="B69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>447</v>
+      <c r="B70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>448</v>
+      <c r="B71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>449</v>
+      <c r="B72">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>450</v>
+      <c r="B73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>451</v>
+      <c r="B74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>452</v>
+      <c r="B75">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>453</v>
+      <c r="B76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>454</v>
+      <c r="B77">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>455</v>
+      <c r="B78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>456</v>
+      <c r="B79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>457</v>
+      <c r="B80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>458</v>
+      <c r="B81">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>459</v>
+      <c r="B82">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>460</v>
+      <c r="B83">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>461</v>
+      <c r="B84">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>462</v>
+      <c r="B85">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>463</v>
+      <c r="B86">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>464</v>
+      <c r="B87">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>465</v>
+      <c r="B88">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>466</v>
+      <c r="B89">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>467</v>
+      <c r="B90">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>468</v>
+      <c r="B91">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>469</v>
+      <c r="B92">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>470</v>
+      <c r="B93">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>471</v>
+      <c r="B94">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>472</v>
+      <c r="B95">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>473</v>
+      <c r="B96">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>474</v>
+      <c r="B97">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>475</v>
+      <c r="B98">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>476</v>
+      <c r="B99">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>477</v>
+      <c r="B100">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>478</v>
+      <c r="B101">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>479</v>
+      <c r="B102">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>480</v>
+      <c r="B103">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>481</v>
+      <c r="B104">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>482</v>
+      <c r="B105">
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>483</v>
+      <c r="B106">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>484</v>
+      <c r="B107">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>485</v>
+      <c r="B108">
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>486</v>
+      <c r="B109">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>487</v>
+      <c r="B110">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>488</v>
+      <c r="B111">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>489</v>
+      <c r="B112">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>490</v>
+      <c r="B113">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>491</v>
+      <c r="B114">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>492</v>
+      <c r="B115">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>493</v>
+      <c r="B116">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>494</v>
+      <c r="B117">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>495</v>
+      <c r="B118">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>496</v>
+      <c r="B119">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>497</v>
+      <c r="B120">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>498</v>
+      <c r="B121">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>499</v>
+      <c r="B122">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>500</v>
+      <c r="B123">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>501</v>
+      <c r="B124">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>502</v>
+      <c r="B125">
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>503</v>
+      <c r="B126">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>504</v>
+      <c r="B127">
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>505</v>
+      <c r="B128">
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>506</v>
+      <c r="B129">
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>507</v>
+      <c r="B130">
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>508</v>
+      <c r="B131">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>509</v>
+      <c r="B132">
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>510</v>
+      <c r="B133">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>511</v>
+      <c r="B134">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>512</v>
+      <c r="B135">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>513</v>
+      <c r="B136">
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>514</v>
+      <c r="B137">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>515</v>
+      <c r="B138">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>516</v>
+      <c r="B139">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>517</v>
+      <c r="B140">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>518</v>
+      <c r="B141">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>519</v>
+      <c r="B142">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>520</v>
+      <c r="B143">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>521</v>
+      <c r="B144">
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>522</v>
+      <c r="B145">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>523</v>
+      <c r="B146">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>524</v>
+      <c r="B147">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>525</v>
+      <c r="B148">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>526</v>
+      <c r="B149">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>527</v>
+      <c r="B150">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>528</v>
+      <c r="B151">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>529</v>
+      <c r="B152">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>530</v>
+      <c r="B153">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>531</v>
+      <c r="B154">
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>532</v>
+      <c r="B155">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>533</v>
+      <c r="B156">
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>534</v>
+      <c r="B157">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>535</v>
+      <c r="B158">
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>536</v>
+      <c r="B159">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>537</v>
+      <c r="B160">
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>538</v>
+      <c r="B161">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>539</v>
+      <c r="B162">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>540</v>
+      <c r="B163">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>541</v>
+      <c r="B164">
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>542</v>
+      <c r="B165">
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>543</v>
+      <c r="B166">
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>544</v>
+      <c r="B167">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>545</v>
+      <c r="B168">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>546</v>
+      <c r="B169">
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>547</v>
+      <c r="B170">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>548</v>
+      <c r="B171">
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>549</v>
+      <c r="B172">
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>550</v>
+      <c r="B173">
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>551</v>
+      <c r="B174">
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>552</v>
+      <c r="B175">
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>553</v>
+      <c r="B176">
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>554</v>
+      <c r="B177">
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>555</v>
+      <c r="B178">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>556</v>
+      <c r="B179">
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>557</v>
+      <c r="B180">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>558</v>
+      <c r="B181">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>559</v>
+      <c r="B182">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>560</v>
+      <c r="B183">
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>561</v>
+      <c r="B184">
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>562</v>
+      <c r="B185">
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>563</v>
+      <c r="B186">
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>564</v>
+      <c r="B187">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>565</v>
+      <c r="B188">
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>566</v>
+      <c r="B189">
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>567</v>
+      <c r="B190">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>568</v>
+      <c r="B191">
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>569</v>
+      <c r="B192">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>570</v>
+      <c r="B193">
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>571</v>
+      <c r="B194">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>572</v>
+      <c r="B195">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>573</v>
+      <c r="B196">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>574</v>
+      <c r="B197">
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>573</v>
+      <c r="B198">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>575</v>
+      <c r="B199">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>576</v>
+      <c r="B200">
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>577</v>
+      <c r="B201">
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>578</v>
+      <c r="B202">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>579</v>
+      <c r="B203">
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>580</v>
+      <c r="B204">
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>581</v>
+      <c r="B205">
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>582</v>
+      <c r="B206">
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>583</v>
+      <c r="B207">
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>584</v>
+      <c r="B208">
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>585</v>
+      <c r="B209">
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>586</v>
+      <c r="B210">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>587</v>
+      <c r="B211">
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>588</v>
+      <c r="B212">
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>589</v>
+      <c r="B213">
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>590</v>
+      <c r="B214">
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>591</v>
+      <c r="B215">
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>592</v>
+      <c r="B216">
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>593</v>
+      <c r="B217">
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>594</v>
+      <c r="B218">
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>595</v>
+      <c r="B219">
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>596</v>
+      <c r="B220">
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>597</v>
+      <c r="B221">
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>598</v>
+      <c r="B222">
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>599</v>
+      <c r="B223">
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>600</v>
+      <c r="B224">
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>601</v>
+      <c r="B225">
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>602</v>
+      <c r="B226">
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>603</v>
+      <c r="B227">
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>604</v>
+      <c r="B228">
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>605</v>
+      <c r="B229">
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>606</v>
+      <c r="B230">
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>607</v>
+      <c r="B231">
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>608</v>
+      <c r="B232">
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>609</v>
+      <c r="B233">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>610</v>
+      <c r="B234">
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>611</v>
+      <c r="B235">
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>612</v>
+      <c r="B236">
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>613</v>
+      <c r="B237">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>614</v>
+      <c r="B238">
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>615</v>
+      <c r="B239">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>616</v>
+      <c r="B240">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>617</v>
+      <c r="B241">
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>618</v>
+      <c r="B242">
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>241</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>619</v>
+      <c r="B243">
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>620</v>
+      <c r="B244">
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>621</v>
+      <c r="B245">
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>622</v>
+      <c r="B246">
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>623</v>
+      <c r="B247">
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>624</v>
+      <c r="B248">
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>625</v>
+      <c r="B249">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>626</v>
+      <c r="B250">
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>627</v>
+      <c r="B251">
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>628</v>
+      <c r="B252">
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>629</v>
+      <c r="B253">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>630</v>
+      <c r="B254">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>631</v>
+      <c r="B255">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>632</v>
+      <c r="B256">
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>633</v>
+      <c r="B257">
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>634</v>
+      <c r="B258">
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>635</v>
+      <c r="B259">
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>636</v>
+      <c r="B260">
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>637</v>
+      <c r="B261">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>638</v>
+      <c r="B262">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>639</v>
+      <c r="B263">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>640</v>
+      <c r="B264">
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>641</v>
+      <c r="B265">
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>642</v>
+      <c r="B266">
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>643</v>
+      <c r="B267">
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>644</v>
+      <c r="B268">
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>645</v>
+      <c r="B269">
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>646</v>
+      <c r="B270">
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>647</v>
+      <c r="B271">
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>648</v>
+      <c r="B272">
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>649</v>
+      <c r="B273">
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>649</v>
+      <c r="B274">
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>273</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>650</v>
+      <c r="B275">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>651</v>
+      <c r="B276">
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>652</v>
+      <c r="B277">
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>653</v>
+      <c r="B278">
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>654</v>
+      <c r="B279">
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>278</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>655</v>
+      <c r="B280">
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>279</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>656</v>
+      <c r="B281">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>280</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>657</v>
+      <c r="B282">
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>281</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>658</v>
+      <c r="B283">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>659</v>
+      <c r="B284">
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>118</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>660</v>
+      <c r="B285">
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>283</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>661</v>
+      <c r="B286">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>284</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>662</v>
+      <c r="B287">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>285</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>663</v>
+      <c r="B288">
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>286</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>664</v>
+      <c r="B289">
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>287</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>665</v>
+      <c r="B290">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>288</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>666</v>
+      <c r="B291">
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>289</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>667</v>
+      <c r="B292">
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>290</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>668</v>
+      <c r="B293">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>291</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>669</v>
+      <c r="B294">
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>292</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>670</v>
+      <c r="B295">
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>293</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>671</v>
+      <c r="B296">
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>294</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>672</v>
+      <c r="B297">
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>295</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>673</v>
+      <c r="B298">
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>296</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>505</v>
+      <c r="B299">
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>297</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>674</v>
+      <c r="B300">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>298</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>675</v>
+      <c r="B301">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>299</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>676</v>
+      <c r="B302">
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>300</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>677</v>
+      <c r="B303">
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>301</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>678</v>
+      <c r="B304">
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>302</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>679</v>
+      <c r="B305">
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>303</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>680</v>
+      <c r="B306">
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>304</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>681</v>
+      <c r="B307">
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>305</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>682</v>
+      <c r="B308">
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>306</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>683</v>
+      <c r="B309">
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>307</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>684</v>
+      <c r="B310">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>308</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>685</v>
+      <c r="B311">
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>309</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>686</v>
+      <c r="B312">
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>310</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>687</v>
+      <c r="B313">
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>311</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>688</v>
+      <c r="B314">
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>312</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>689</v>
+      <c r="B315">
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>313</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>690</v>
+      <c r="B316">
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>314</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>691</v>
+      <c r="B317">
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>315</v>
       </c>
-      <c r="B318" s="3" t="s">
-        <v>692</v>
+      <c r="B318">
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>316</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>693</v>
+      <c r="B319">
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>317</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>694</v>
+      <c r="B320">
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>318</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>695</v>
+      <c r="B321">
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>319</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>696</v>
+      <c r="B322">
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>320</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>697</v>
+      <c r="B323">
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>321</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>698</v>
+      <c r="B324">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>322</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>699</v>
+      <c r="B325">
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>323</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>700</v>
+      <c r="B326">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>324</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>701</v>
+      <c r="B327">
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>325</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>702</v>
+      <c r="B328">
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>326</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>703</v>
+      <c r="B329">
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>327</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>704</v>
+      <c r="B330">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>328</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>705</v>
+      <c r="B331">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>329</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>706</v>
+      <c r="B332">
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>330</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>707</v>
+      <c r="B333">
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>331</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>708</v>
+      <c r="B334">
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>332</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>709</v>
+      <c r="B335">
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>333</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>710</v>
+      <c r="B336">
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>334</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>711</v>
+      <c r="B337">
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>335</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>712</v>
+      <c r="B338">
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>336</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>713</v>
+      <c r="B339">
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>337</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>714</v>
+      <c r="B340">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="A341" t="s">
         <v>338</v>
       </c>
-      <c r="B341" s="2" t="s">
-        <v>715</v>
+      <c r="B341">
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="A342" t="s">
         <v>339</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>716</v>
+      <c r="B342">
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="A343" t="s">
         <v>340</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>717</v>
+      <c r="B343">
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="A344" t="s">
         <v>341</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>718</v>
+      <c r="B344">
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="A345" t="s">
         <v>342</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>719</v>
+      <c r="B345">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="A346" t="s">
         <v>343</v>
       </c>
-      <c r="B346" s="2" t="s">
-        <v>720</v>
+      <c r="B346">
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="A347" t="s">
         <v>344</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>721</v>
+      <c r="B347">
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="A348" t="s">
         <v>345</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>722</v>
+      <c r="B348">
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="A349" t="s">
         <v>346</v>
       </c>
-      <c r="B349" s="2" t="s">
-        <v>723</v>
+      <c r="B349">
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="A350" t="s">
         <v>347</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>724</v>
+      <c r="B350">
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="A351" t="s">
         <v>348</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>725</v>
+      <c r="B351">
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="A352" t="s">
         <v>349</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>726</v>
+      <c r="B352">
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="A353" t="s">
         <v>350</v>
       </c>
-      <c r="B353" s="2" t="s">
-        <v>727</v>
+      <c r="B353">
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="A354" t="s">
         <v>351</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>728</v>
+      <c r="B354">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="A355" t="s">
         <v>352</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>729</v>
+      <c r="B355">
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="A356" t="s">
         <v>353</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>730</v>
+      <c r="B356">
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="A357" t="s">
         <v>354</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>731</v>
+      <c r="B357">
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="A358" t="s">
         <v>355</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>732</v>
+      <c r="B358">
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+      <c r="A359" t="s">
         <v>356</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>733</v>
+      <c r="B359">
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="A360" t="s">
         <v>357</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>734</v>
+      <c r="B360">
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+      <c r="A361" t="s">
         <v>358</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>735</v>
+      <c r="B361">
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="A362" t="s">
         <v>359</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>736</v>
+      <c r="B362">
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="A363" t="s">
         <v>360</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>737</v>
+      <c r="B363">
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="A364" t="s">
         <v>361</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>738</v>
+      <c r="B364">
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="A365" t="s">
         <v>362</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>739</v>
+      <c r="B365">
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="A366" t="s">
         <v>363</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>740</v>
+      <c r="B366">
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="A367" t="s">
         <v>364</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>741</v>
+      <c r="B367">
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="A368" t="s">
         <v>365</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>742</v>
+      <c r="B368">
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+      <c r="A369" t="s">
         <v>366</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>743</v>
+      <c r="B369">
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="A370" t="s">
         <v>367</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>744</v>
+      <c r="B370">
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="A371" t="s">
         <v>368</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>745</v>
+      <c r="B371">
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="A372" t="s">
         <v>369</v>
       </c>
-      <c r="B372" s="2" t="s">
-        <v>746</v>
+      <c r="B372">
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="A373" t="s">
         <v>370</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>747</v>
+      <c r="B373">
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" t="s">
         <v>371</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>748</v>
+      <c r="B374">
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="A375" t="s">
         <v>372</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>749</v>
+      <c r="B375">
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="A376" t="s">
         <v>373</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>750</v>
+      <c r="B376">
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="A377" t="s">
         <v>374</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>751</v>
+      <c r="B377">
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="A378" t="s">
         <v>375</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>752</v>
+      <c r="B378">
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="A379" t="s">
         <v>376</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>753</v>
+      <c r="B379">
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="A380" t="s">
         <v>377</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>754</v>
+      <c r="B380">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
